--- a/medicine/Enfance/Taï-Marc_Le_Thanh/Taï-Marc_Le_Thanh.xlsx
+++ b/medicine/Enfance/Taï-Marc_Le_Thanh/Taï-Marc_Le_Thanh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ta%C3%AF-Marc_Le_Thanh</t>
+          <t>Taï-Marc_Le_Thanh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Taï-Marc Le Thanh est un écrivain français de littérature jeunesse né le 5 juillet 1967 à Antony (Hauts-de-Seine).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ta%C3%AF-Marc_Le_Thanh</t>
+          <t>Taï-Marc_Le_Thanh</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé de l'École municipale supérieure des arts et techniques (EMSAT), il est également graphiste free-lance.
-Marié à l'illustratrice Rébecca Dautremer, il collabore régulièrement avec elle : en 2003 elle illustre Babayaga, qu'il a écrit[1], et en 2005, l'album Cyrano[1], texte qu'il a adapté de Cyrano de Bergerac d'Edmond Rostand.
-Il écrit et illustre en 2022 le roman Et le ciel se voila de fureur, qui obtient une « Mention » au Prix Vendredi 2022[2], et le Prix Sorcières 2023[3], dans la catégorie Carrément Passionnant Maxi.
+Marié à l'illustratrice Rébecca Dautremer, il collabore régulièrement avec elle : en 2003 elle illustre Babayaga, qu'il a écrit, et en 2005, l'album Cyrano, texte qu'il a adapté de Cyrano de Bergerac d'Edmond Rostand.
+Il écrit et illustre en 2022 le roman Et le ciel se voila de fureur, qui obtient une « Mention » au Prix Vendredi 2022, et le Prix Sorcières 2023, dans la catégorie Carrément Passionnant Maxi.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ta%C3%AF-Marc_Le_Thanh</t>
+          <t>Taï-Marc_Le_Thanh</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>À fond la caisse, Editions du Seuil, 2009.
 Elvis, Gautier-Languereau, 2008.
@@ -558,7 +574,7 @@
 Tome 3 : Qui ? ou Un petit vent de folie
 Tome 4 : La Petite Sœur carnivore ou La Maladie du mouton fou
 Tome 5 : Le Jour des gonflés ou Un gros vent de folie
-Cyrano[1], raconté par Taï-Marc Le Thanh, illustré par Rébecca Dautremer ; d'après Cyrano de Bergerac d’Edmond Rostand, Gautier-Languereau, 2005
+Cyrano, raconté par Taï-Marc Le Thanh, illustré par Rébecca Dautremer ; d'après Cyrano de Bergerac d’Edmond Rostand, Gautier-Languereau, 2005
 Tout nu, illustration de Benjamin Chaud, Gautier-Languereau, 2008
 Jonah, 2013 (six tomes attendus) :
 Tome 1: Les Sentinelles
@@ -585,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ta%C3%AF-Marc_Le_Thanh</t>
+          <t>Taï-Marc_Le_Thanh</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -603,13 +619,15 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2014 : Prix Saint-Exupéry[4] pour Jonah, tome 1 : Les sentinelles
-2018 : Prix des Lecteurs en Seine[5] pour  Le jardin des épitaphes, tome 1 : Celui qui est resté debout
-2022 : « Mention » Prix Vendredi[2] pour Et le ciel se voila de fureur
-2023 : Prix Sorcières[3], Catégorie Carrément Passionnant Maxi pour Et le ciel se voila de fureur
-2023 : Prix A-Fictionados pour Et le ciel se voila de fureur[6]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2014 : Prix Saint-Exupéry pour Jonah, tome 1 : Les sentinelles
+2018 : Prix des Lecteurs en Seine pour  Le jardin des épitaphes, tome 1 : Celui qui est resté debout
+2022 : « Mention » Prix Vendredi pour Et le ciel se voila de fureur
+2023 : Prix Sorcières, Catégorie Carrément Passionnant Maxi pour Et le ciel se voila de fureur
+2023 : Prix A-Fictionados pour Et le ciel se voila de fureur</t>
         </is>
       </c>
     </row>
